--- a/Data/NMSE.xlsx
+++ b/Data/NMSE.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="155">
   <si>
     <t>Average CQI</t>
   </si>
@@ -480,12 +480,6 @@
   </si>
   <si>
     <t>Reference</t>
-  </si>
-  <si>
-    <t>StraightLSTM</t>
-  </si>
-  <si>
-    <t>StraightARIMA</t>
   </si>
 </sst>
 </file>
@@ -834,7 +828,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EY4"/>
+  <dimension ref="A1:EY2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1311,1400 +1305,466 @@
         <v>154</v>
       </c>
       <c r="B2" t="n">
-        <v>1.697051001568231e-05</v>
+        <v>5.090178244769996e-06</v>
       </c>
       <c r="C2" t="n">
-        <v>4.851065835087027e-05</v>
+        <v>2.745497671164904e-05</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0133196845394455</v>
+        <v>0.00826978522895982</v>
       </c>
       <c r="E2" t="n">
-        <v>0.005091907586549435</v>
+        <v>0.002811412929338294</v>
       </c>
       <c r="F2" t="n">
-        <v>0.001351385574393668</v>
+        <v>0.001502622202898764</v>
       </c>
       <c r="G2" t="n">
-        <v>0.343618524245936</v>
+        <v>0.3545902852235792</v>
       </c>
       <c r="H2" t="n">
-        <v>0.07295214802297266</v>
+        <v>0.07773482451069154</v>
       </c>
       <c r="I2" t="n">
-        <v>0.002028420956138266</v>
+        <v>0.001355857164596097</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3087479822853503</v>
+        <v>0.6592994757133858</v>
       </c>
       <c r="K2" t="n">
-        <v>0.006159888124399523</v>
+        <v>0.007136765960452998</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001354081086565237</v>
+        <v>0.002088629337397609</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01033582076515624</v>
+        <v>0.01083831155468738</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0005870651177407067</v>
+        <v>0.0007853952071615881</v>
       </c>
       <c r="O2" t="n">
-        <v>0.003864447199944427</v>
+        <v>0.005681617657710115</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0001837389214089246</v>
+        <v>0.0002412199403678294</v>
       </c>
       <c r="Q2" t="n">
-        <v>4.094936636593206e-05</v>
+        <v>4.837364864903622e-05</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1706650172940078</v>
+        <v>0.005908081205735302</v>
       </c>
       <c r="S2" t="n">
-        <v>0.05261989806093766</v>
+        <v>0.0154398683620637</v>
       </c>
       <c r="T2" t="n">
-        <v>0.001710440522506784</v>
+        <v>0.0003735635859076583</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0003540807635813296</v>
+        <v>0.0005188446441638229</v>
       </c>
       <c r="V2" t="n">
-        <v>0.001788272027242546</v>
+        <v>0.001305358647748235</v>
       </c>
       <c r="W2" t="n">
-        <v>0.005149580092418181</v>
+        <v>0.005327007096403537</v>
       </c>
       <c r="X2" t="n">
-        <v>0.005121572328991254</v>
+        <v>0.0038582582718499</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.2025163069188534</v>
+        <v>0.02023868936160611</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.04872229003001327</v>
+        <v>0.001254421029007735</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.021055482672983e-06</v>
+        <v>2.034588631704625e-07</v>
       </c>
       <c r="AB2" t="n">
-        <v>4.745757541157779e-07</v>
+        <v>2.193233074800253e-06</v>
       </c>
       <c r="AC2" t="n">
-        <v>2.114657223982658e-05</v>
+        <v>8.071664224134353e-05</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.05402402671067402</v>
+        <v>0.03688345843844618</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.007293938127398623</v>
+        <v>0.001261614419753823</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.01291257970873185</v>
+        <v>0.008561587603331651</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.03742352370489149</v>
+        <v>0.03516950921763141</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.04079538032792393</v>
+        <v>0.00360725407223904</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.01525969264073614</v>
+        <v>0.008164763782521895</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.008266248308751341</v>
+        <v>0.0044075686292998</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.00383578357923573</v>
+        <v>0.001479302029849135</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.009017419752450065</v>
+        <v>0.001147298696916366</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.1026851818530114</v>
+        <v>0.003673082503780721</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.216791587592679</v>
+        <v>0.0531712815718056</v>
       </c>
       <c r="AO2" t="n">
-        <v>4.106273865712737e-05</v>
+        <v>1.59359136560033e-05</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.34295611602785e-06</v>
+        <v>6.64038894595647e-06</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.002162271845724695</v>
+        <v>0.004385720291068711</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.007394216862753021</v>
+        <v>0.001803127699168947</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.267541495489647</v>
+        <v>1.524429714441761</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.265803115571395</v>
+        <v>1.522170554651274</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.00398817003233977</v>
+        <v>0.002272650320610851</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.004043718530579613</v>
+        <v>0.002267154018765537</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.9757992148343204</v>
+        <v>0.7838514352303484</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.1398545157485537</v>
+        <v>0.001478492571978748</v>
       </c>
       <c r="AY2" t="n">
-        <v>1.175424385910019e-06</v>
+        <v>9.659375897215042e-07</v>
       </c>
       <c r="AZ2" t="n">
-        <v>6.210283049360217e-08</v>
+        <v>1.536302757950734e-07</v>
       </c>
       <c r="BA2" t="n">
-        <v>9.019350053549261e-06</v>
+        <v>1.115144320407289e-06</v>
       </c>
       <c r="BB2" t="n">
-        <v>9.172497337239402e-07</v>
+        <v>1.174329827591744e-06</v>
       </c>
       <c r="BC2" t="n">
-        <v>1.791314397084099e-08</v>
+        <v>1.174729011350517e-07</v>
       </c>
       <c r="BD2" t="n">
-        <v>5.38897060387779e-06</v>
+        <v>4.612659356420129e-06</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.002189310936117077</v>
+        <v>0.001468369526653391</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.003612666971135484</v>
+        <v>0.004795559208266684</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.00543059457217589</v>
+        <v>0.00125206022555742</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.02356996570368013</v>
+        <v>0.002385680443197492</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.1773502200879518</v>
+        <v>0.003502301662603324</v>
       </c>
       <c r="BJ2" t="n">
-        <v>2.053429798596659e-08</v>
+        <v>1.196540221549277e-07</v>
       </c>
       <c r="BK2" t="n">
-        <v>7.318680179827094e-08</v>
+        <v>2.232459842272623e-07</v>
       </c>
       <c r="BL2" t="n">
-        <v>4.279572134991893e-05</v>
+        <v>4.972496144918865e-05</v>
       </c>
       <c r="BM2" t="n">
-        <v>1.252497394797714e-05</v>
+        <v>4.055666944503522e-06</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.1608918085000497</v>
+        <v>0.23664196596683</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.5826505809431517</v>
+        <v>0.07147700513697845</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.2133363121014402</v>
+        <v>0.05921043050415131</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.5824263549974683</v>
+        <v>0.07147191687341183</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.05149328981879045</v>
+        <v>0.06597307651376912</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.1148448790592971</v>
+        <v>0.07997587935303391</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.100152864071687</v>
+        <v>0.09088431298812165</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.1482382600147806</v>
+        <v>0.06571448662190892</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.00754461741038905</v>
+        <v>0.009929236461563821</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.01688232416502643</v>
+        <v>0.008081429586298736</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.001587309173630078</v>
+        <v>0.001484234156066783</v>
       </c>
       <c r="BY2" t="n">
-        <v>1.374604687540817</v>
+        <v>1.133796017713799</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.1097798882994682</v>
+        <v>0.1038816916371828</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.003062051988952501</v>
+        <v>0.002090774616615674</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.4176751601851199</v>
+        <v>1.023873377761069</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.01808353402288463</v>
+        <v>0.02445306142392903</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.002115510149987303</v>
+        <v>0.002828662449720698</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.6452799598465498</v>
+        <v>0.1544133639061964</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.05742349461860215</v>
+        <v>0.1375716608357817</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.01390779464006425</v>
+        <v>0.01386179960914904</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.8733634799796303</v>
+        <v>0.667253686046427</v>
       </c>
       <c r="CI2" t="n">
-        <v>1.241323870512725e-05</v>
+        <v>3.62128325959067e-06</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.1211571621258736</v>
+        <v>0.08032631860345679</v>
       </c>
       <c r="CK2" t="n">
-        <v>1.230635796997587e-06</v>
+        <v>9.337978247639383e-07</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.006952857343885191</v>
+        <v>0.005846619688005651</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.1385323262764942</v>
+        <v>0.121888822869215</v>
       </c>
       <c r="CN2" t="n">
-        <v>1.078641840087623</v>
+        <v>0.8807474797147775</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.0436876616297475</v>
+        <v>0.04745503643803926</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.04503934977901317</v>
+        <v>0.081127851555418</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.006155044372226881</v>
+        <v>0.002523625982134101</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.0001342033107122905</v>
+        <v>0.0003495952874825324</v>
       </c>
       <c r="CS2" t="n">
-        <v>4.276489856559637e-05</v>
+        <v>1.776959092469584e-05</v>
       </c>
       <c r="CT2" t="n">
-        <v>7.590518954834455e-06</v>
+        <v>1.247427510918811e-05</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.9444892834723344</v>
+        <v>0.6295894923923879</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.2044276614266854</v>
+        <v>0.006763934814365499</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.1787130739304423</v>
+        <v>0.004784239045820481</v>
       </c>
       <c r="CX2" t="n">
-        <v>2.955925066636522e-07</v>
+        <v>1.777517124409111e-07</v>
       </c>
       <c r="CY2" t="n">
         <v>6.038817128373546e-07</v>
       </c>
       <c r="CZ2" t="n">
-        <v>11.75748187020129</v>
+        <v>29.76010998763665</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.2040303373991563</v>
+        <v>0.006768108386716855</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.1782413590000259</v>
+        <v>0.004749843263963056</v>
       </c>
       <c r="DC2" t="n">
-        <v>8.310430265472714e-06</v>
+        <v>1.434181021305495e-05</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.01734241162218801</v>
+        <v>0.007695025305209873</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.02845862117932891</v>
+        <v>0.006713066526942033</v>
       </c>
       <c r="DF2" t="n">
-        <v>1.768600813156902</v>
+        <v>4.133876179849454</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.249281014640803</v>
+        <v>0.01056005857942565</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.007846026834059565</v>
+        <v>0.005648829876663833</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.2082558729654814</v>
+        <v>0.006345708652495517</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.008733696207839042</v>
+        <v>0.005214734485665431</v>
       </c>
       <c r="DK2" t="n">
-        <v>5.78526373120917</v>
+        <v>5.410137782985248</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.8940384115244058</v>
+        <v>0.9262651802005881</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.0008447343774879982</v>
+        <v>0.001188640027158425</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.3182319531187696</v>
+        <v>0.06537961000928218</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.1474867344333136</v>
+        <v>0.002928236940816112</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.002897982544318854</v>
+        <v>0.002218735064332626</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.3160657141813998</v>
+        <v>0.07162800682421665</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.002857754623674132</v>
+        <v>0.001412889444270906</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.1538973384419186</v>
+        <v>0.001911710650287132</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.0003251676049339084</v>
+        <v>0.0003060540121575882</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.001269115948574921</v>
+        <v>0.001291496304567014</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.0004796719943391623</v>
+        <v>0.0003020709327789955</v>
       </c>
       <c r="DW2" t="n">
-        <v>4.153938156278567e-05</v>
+        <v>1.753901713361661e-05</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.0001944691922738781</v>
+        <v>0.0002007246235503525</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.2080194953450572</v>
+        <v>0.005821952695533449</v>
       </c>
       <c r="DZ2" t="n">
-        <v>4.402522263998202e-05</v>
+        <v>1.681884896410588e-05</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.08109361952185075</v>
+        <v>0.062216353105385</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.003660320609782186</v>
+        <v>0.006779924344009538</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.008733854270961919</v>
+        <v>0.006075154673096769</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.006018146641929883</v>
+        <v>0.01042851734421415</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.02046942351162942</v>
+        <v>0.01554148512229967</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.0005012235706288454</v>
+        <v>0.0004109971448776734</v>
       </c>
       <c r="EG2" t="n">
-        <v>2.071107996007785e-05</v>
+        <v>4.253693018189805e-05</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.003785748623565643</v>
+        <v>0.01168939259689922</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.004214986833860887</v>
+        <v>0.01123446160889801</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.0002511639833098712</v>
+        <v>0.0003487232181740162</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.004564204547170807</v>
+        <v>0.001037604702091304</v>
       </c>
       <c r="EL2" t="n">
-        <v>17.3038752362949</v>
+        <v>46.83620689655174</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.000252236950467959</v>
+        <v>0.0007848481274494334</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.006035896957047328</v>
+        <v>0.00598891174618291</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.1128371089050686</v>
+        <v>0.001668744407111767</v>
       </c>
       <c r="EP2" t="n">
-        <v>9.424910323480903e-09</v>
+        <v>1.189541918179167e-08</v>
       </c>
       <c r="EQ2" t="n">
-        <v>3.612128604881243e-05</v>
+        <v>0.001772984599828127</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.0001583773972367078</v>
+        <v>0.0001169038683378334</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.01291554357592093</v>
+        <v>0.01459232341585283</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.0005148643237161762</v>
+        <v>0.0007714542865714572</v>
       </c>
       <c r="EU2" t="n">
-        <v>91.31872467962937</v>
+        <v>87.79853853652854</v>
       </c>
       <c r="EV2" t="n">
-        <v>1.194096048305115</v>
+        <v>0.9435077547431457</v>
       </c>
       <c r="EW2" t="n">
-        <v>1.194096048305115</v>
+        <v>0.9435077547431457</v>
       </c>
       <c r="EX2" t="n">
-        <v>1.194096048305115</v>
+        <v>0.9435077547431457</v>
       </c>
       <c r="EY2" t="n">
-        <v>1.194096048305115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:155">
-      <c r="A3" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2.199129368115867e-05</v>
-      </c>
-      <c r="C3" t="n">
-        <v>7.711305796399917e-05</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.02165706550641909</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.00360972500400421</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.001109789638337655</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.2803213326185488</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.05892784146784798</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.001703060159386513</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.2746978894234475</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.005821474838908769</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.001021638175387097</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.0321730575769216</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.001565056093005263</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.003809396067780784</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.000149486735032199</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.000122612297304565</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.05379338907736076</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.08456150712187042</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.0003184249535991392</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.000712403277035582</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.002917539583083807</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.01524446719400134</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.006292427179007941</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0.1961845982041556</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0.001810091467455172</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>6.37418198599511e-07</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>1.37930059982613e-06</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>3.422728243167571e-05</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0.05163869895599282</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0.01013698143429438</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0.03035232572223025</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0.02237038319871558</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>0.02399790639711402</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>0.02230333722772262</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0.007692045410224005</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>0.001616576008179931</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>0.006836357206478132</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0.004063209660503872</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>0.178072437594476</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>3.068277725310831e-05</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>1.130867586379709e-06</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0.002450276142719589</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>0.0086521342956955</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>2.5628963366586</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>1.151830710787474</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>0.00154522665071032</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>0.001361523706235954</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>0.3090764363770666</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>0.01933042530618759</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>9.151923665364059e-07</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>5.695158604838597e-08</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>1.17907842523167e-05</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>7.777027132368508e-07</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>5.697940320333971e-08</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>5.78065743247595e-06</v>
-      </c>
-      <c r="BE3" t="n">
-        <v>0.001057423439210062</v>
-      </c>
-      <c r="BF3" t="n">
-        <v>0.005242011289025556</v>
-      </c>
-      <c r="BG3" t="n">
-        <v>0.008052057382397899</v>
-      </c>
-      <c r="BH3" t="n">
-        <v>0.00994808980754428</v>
-      </c>
-      <c r="BI3" t="n">
-        <v>0.007550068621466868</v>
-      </c>
-      <c r="BJ3" t="n">
-        <v>4.617083327121952e-08</v>
-      </c>
-      <c r="BK3" t="n">
-        <v>8.341762575967181e-08</v>
-      </c>
-      <c r="BL3" t="n">
-        <v>0.0001742712465569757</v>
-      </c>
-      <c r="BM3" t="n">
-        <v>7.760223709636074e-06</v>
-      </c>
-      <c r="BN3" t="n">
-        <v>0.1350618166568593</v>
-      </c>
-      <c r="BO3" t="n">
-        <v>0.8411809238298599</v>
-      </c>
-      <c r="BP3" t="n">
-        <v>0.161106024137122</v>
-      </c>
-      <c r="BQ3" t="n">
-        <v>0.852735885557629</v>
-      </c>
-      <c r="BR3" t="n">
-        <v>0.0468237029695531</v>
-      </c>
-      <c r="BS3" t="n">
-        <v>0.1049784889041918</v>
-      </c>
-      <c r="BT3" t="n">
-        <v>0.08283070926724662</v>
-      </c>
-      <c r="BU3" t="n">
-        <v>0.1093625624662508</v>
-      </c>
-      <c r="BV3" t="n">
-        <v>0.01254817132926149</v>
-      </c>
-      <c r="BW3" t="n">
-        <v>0.009926198297216754</v>
-      </c>
-      <c r="BX3" t="n">
-        <v>0.001258224889064693</v>
-      </c>
-      <c r="BY3" t="n">
-        <v>1.841173208287299</v>
-      </c>
-      <c r="BZ3" t="n">
-        <v>0.07937729931785888</v>
-      </c>
-      <c r="CA3" t="n">
-        <v>0.002298195413881367</v>
-      </c>
-      <c r="CB3" t="n">
-        <v>0.3804118277617204</v>
-      </c>
-      <c r="CC3" t="n">
-        <v>0.01766522621646991</v>
-      </c>
-      <c r="CD3" t="n">
-        <v>0.00125109130432884</v>
-      </c>
-      <c r="CE3" t="n">
-        <v>0.5837184600135999</v>
-      </c>
-      <c r="CF3" t="n">
-        <v>0.1327358900198921</v>
-      </c>
-      <c r="CG3" t="n">
-        <v>0.03996223376028179</v>
-      </c>
-      <c r="CH3" t="n">
-        <v>0.529800211867626</v>
-      </c>
-      <c r="CI3" t="n">
-        <v>2.035684167087556e-05</v>
-      </c>
-      <c r="CJ3" t="n">
-        <v>0.1482066791172535</v>
-      </c>
-      <c r="CK3" t="n">
-        <v>1.103905288891096e-06</v>
-      </c>
-      <c r="CL3" t="n">
-        <v>0.01246154028883481</v>
-      </c>
-      <c r="CM3" t="n">
-        <v>0.1048624521114346</v>
-      </c>
-      <c r="CN3" t="n">
-        <v>0.8212077198139555</v>
-      </c>
-      <c r="CO3" t="n">
-        <v>0.03780283787476844</v>
-      </c>
-      <c r="CP3" t="n">
-        <v>0.05433760476407786</v>
-      </c>
-      <c r="CQ3" t="n">
-        <v>0.009489695675311874</v>
-      </c>
-      <c r="CR3" t="n">
-        <v>0.0003010923671029637</v>
-      </c>
-      <c r="CS3" t="n">
-        <v>5.188580130538616e-05</v>
-      </c>
-      <c r="CT3" t="n">
-        <v>1.252997367265945e-05</v>
-      </c>
-      <c r="CU3" t="n">
-        <v>0.6392766200106542</v>
-      </c>
-      <c r="CV3" t="n">
-        <v>0.03451244886646699</v>
-      </c>
-      <c r="CW3" t="n">
-        <v>0.01730692690235795</v>
-      </c>
-      <c r="CX3" t="n">
-        <v>3.906474693863566e-07</v>
-      </c>
-      <c r="CY3" t="n">
-        <v>1.282713942050295e-06</v>
-      </c>
-      <c r="CZ3" t="n">
-        <v>24.10058357417862</v>
-      </c>
-      <c r="DA3" t="n">
-        <v>0.04841342220075188</v>
-      </c>
-      <c r="DB3" t="n">
-        <v>0.01084865898754094</v>
-      </c>
-      <c r="DC3" t="n">
-        <v>2.542550936654308e-05</v>
-      </c>
-      <c r="DD3" t="n">
-        <v>0.01767427668039373</v>
-      </c>
-      <c r="DE3" t="n">
-        <v>0.009286406278556742</v>
-      </c>
-      <c r="DF3" t="n">
-        <v>1.398985296916243</v>
-      </c>
-      <c r="DG3" t="n">
-        <v>0.03119623440221172</v>
-      </c>
-      <c r="DH3" t="n">
-        <v>0.01232359054976542</v>
-      </c>
-      <c r="DI3" t="n">
-        <v>0.02954275694494748</v>
-      </c>
-      <c r="DJ3" t="n">
-        <v>0.01640821943731233</v>
-      </c>
-      <c r="DK3" t="n">
-        <v>4.521418700238869</v>
-      </c>
-      <c r="DL3" t="n">
-        <v>0.4836449073893745</v>
-      </c>
-      <c r="DM3" t="n">
-        <v>0.000456869208151396</v>
-      </c>
-      <c r="DN3" t="n">
-        <v>0.2439866636871609</v>
-      </c>
-      <c r="DO3" t="n">
-        <v>0.02095436321560183</v>
-      </c>
-      <c r="DP3" t="n">
-        <v>0.001435665713544959</v>
-      </c>
-      <c r="DQ3" t="n">
-        <v>0.1738662767237852</v>
-      </c>
-      <c r="DR3" t="n">
-        <v>0.004242450228622899</v>
-      </c>
-      <c r="DS3" t="n">
-        <v>0.01729730605671221</v>
-      </c>
-      <c r="DT3" t="n">
-        <v>0.0003374289353911244</v>
-      </c>
-      <c r="DU3" t="n">
-        <v>0.001357635823609245</v>
-      </c>
-      <c r="DV3" t="n">
-        <v>0.001131186118165076</v>
-      </c>
-      <c r="DW3" t="n">
-        <v>3.698899552475986e-05</v>
-      </c>
-      <c r="DX3" t="n">
-        <v>0.0002018476749498112</v>
-      </c>
-      <c r="DY3" t="n">
-        <v>0.02780594675275477</v>
-      </c>
-      <c r="DZ3" t="n">
-        <v>3.405865935008324e-05</v>
-      </c>
-      <c r="EA3" t="n">
-        <v>0.06800334360251854</v>
-      </c>
-      <c r="EB3" t="n">
-        <v>0.006191547743528284</v>
-      </c>
-      <c r="EC3" t="n">
-        <v>0.004356991071362189</v>
-      </c>
-      <c r="ED3" t="n">
-        <v>0.01017153425380605</v>
-      </c>
-      <c r="EE3" t="n">
-        <v>0.0133152258169546</v>
-      </c>
-      <c r="EF3" t="n">
-        <v>0.0006671870465249657</v>
-      </c>
-      <c r="EG3" t="n">
-        <v>4.556285775046162e-06</v>
-      </c>
-      <c r="EH3" t="n">
-        <v>0.005650450361879019</v>
-      </c>
-      <c r="EI3" t="n">
-        <v>0.007898501100026357</v>
-      </c>
-      <c r="EJ3" t="n">
-        <v>0.0002287138397326769</v>
-      </c>
-      <c r="EK3" t="n">
-        <v>0.004615786046058755</v>
-      </c>
-      <c r="EL3" t="n">
-        <v>7.011815214939593</v>
-      </c>
-      <c r="EM3" t="n">
-        <v>0.0002038890329493309</v>
-      </c>
-      <c r="EN3" t="n">
-        <v>0.007424785368148219</v>
-      </c>
-      <c r="EO3" t="n">
-        <v>0.004392186513598046</v>
-      </c>
-      <c r="EP3" t="n">
-        <v>3.162533370617478e-08</v>
-      </c>
-      <c r="EQ3" t="n">
-        <v>8.361694683706445e-05</v>
-      </c>
-      <c r="ER3" t="n">
-        <v>0.0001491241869306197</v>
-      </c>
-      <c r="ES3" t="n">
-        <v>0.01779544877748631</v>
-      </c>
-      <c r="ET3" t="n">
-        <v>0.00130486827774708</v>
-      </c>
-      <c r="EU3" t="n">
-        <v>21.76288321602139</v>
-      </c>
-      <c r="EV3" t="n">
-        <v>0.5287513314839521</v>
-      </c>
-      <c r="EW3" t="n">
-        <v>0.4901216367765797</v>
-      </c>
-      <c r="EX3" t="n">
-        <v>0.530234256744157</v>
-      </c>
-      <c r="EY3" t="n">
-        <v>0.3920536955465517</v>
-      </c>
-    </row>
-    <row r="4" spans="1:155">
-      <c r="A4" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.0009547699522340368</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2451643007624272</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.01904507747747703</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.004733788401321667</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.001884040143408562</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.3130943108972866</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.0787248303331665</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.01131310608511451</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.6323816217060449</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.004922415695266932</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.006413122992736688</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.03546021034462159</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.01321066949825442</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.04676374209468655</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.003677639528423685</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.0001050619250200323</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.06596299570377115</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.06961099727379433</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.0112812070710215</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.007001762353779854</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.06291549808563807</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0.03522373912854044</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.6402095800324381</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0.07718047042110683</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0.05375026884616221</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>2.963684563293376e-06</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>3.210955947048854e-06</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0.00282233051442048</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0.1798798434185012</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0.02063944000647944</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0.1622020999721953</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0.1323711720640845</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>0.04416659964919731</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>0.07383087630179692</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0.043179969317203</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>0.03378803355028961</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>0.02022594563716969</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>0.1064302228870839</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>6.55128987683743</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>3.666990911676686e-05</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>5.256438845226315e-06</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>0.003107701228345743</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>0.01961735164979038</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>2.069240957717834</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.064404100401793</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>0.2429146032907977</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>0.256465998787942</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>0.2868022465195696</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>15.19951985913716</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>8.576386990228009e-07</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>1.030884355976624e-07</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>1.471778169931816e-06</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>2.225195534662576e-06</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>1.577449660337493e-07</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>6.023402597418246e-06</v>
-      </c>
-      <c r="BE4" t="n">
-        <v>0.007677043343982992</v>
-      </c>
-      <c r="BF4" t="n">
-        <v>0.05121951719219444</v>
-      </c>
-      <c r="BG4" t="n">
-        <v>0.01250863404530222</v>
-      </c>
-      <c r="BH4" t="n">
-        <v>0.03750845983702995</v>
-      </c>
-      <c r="BI4" t="n">
-        <v>0.07066188254293636</v>
-      </c>
-      <c r="BJ4" t="n">
-        <v>1.770364542333222e-06</v>
-      </c>
-      <c r="BK4" t="n">
-        <v>4.436256597802312e-07</v>
-      </c>
-      <c r="BL4" t="n">
-        <v>0.0002241795544058435</v>
-      </c>
-      <c r="BM4" t="n">
-        <v>1.47645718507861e-05</v>
-      </c>
-      <c r="BN4" t="n">
-        <v>0.1936203325139483</v>
-      </c>
-      <c r="BO4" t="n">
-        <v>0.08208179942733609</v>
-      </c>
-      <c r="BP4" t="n">
-        <v>0.09409855253568221</v>
-      </c>
-      <c r="BQ4" t="n">
-        <v>0.08181730827199581</v>
-      </c>
-      <c r="BR4" t="n">
-        <v>0.09867015954732823</v>
-      </c>
-      <c r="BS4" t="n">
-        <v>0.1027098195560282</v>
-      </c>
-      <c r="BT4" t="n">
-        <v>0.2364015370360796</v>
-      </c>
-      <c r="BU4" t="n">
-        <v>0.1479273081290578</v>
-      </c>
-      <c r="BV4" t="n">
-        <v>0.16014256484002</v>
-      </c>
-      <c r="BW4" t="n">
-        <v>0.02171251673618788</v>
-      </c>
-      <c r="BX4" t="n">
-        <v>0.0007101975406340888</v>
-      </c>
-      <c r="BY4" t="n">
-        <v>1.100051053617668</v>
-      </c>
-      <c r="BZ4" t="n">
-        <v>0.1065007532600194</v>
-      </c>
-      <c r="CA4" t="n">
-        <v>0.01224615492388735</v>
-      </c>
-      <c r="CB4" t="n">
-        <v>0.9134749318090719</v>
-      </c>
-      <c r="CC4" t="n">
-        <v>0.01770787531015234</v>
-      </c>
-      <c r="CD4" t="n">
-        <v>0.007499556092660591</v>
-      </c>
-      <c r="CE4" t="n">
-        <v>0.2274279429470009</v>
-      </c>
-      <c r="CF4" t="n">
-        <v>0.1326039526148808</v>
-      </c>
-      <c r="CG4" t="n">
-        <v>0.04496667525586775</v>
-      </c>
-      <c r="CH4" t="n">
-        <v>0.8487528201001032</v>
-      </c>
-      <c r="CI4" t="n">
-        <v>3.629050563845433e-05</v>
-      </c>
-      <c r="CJ4" t="n">
-        <v>0.1697119559649713</v>
-      </c>
-      <c r="CK4" t="n">
-        <v>1.029228212774051e-06</v>
-      </c>
-      <c r="CL4" t="n">
-        <v>0.1173733613100072</v>
-      </c>
-      <c r="CM4" t="n">
-        <v>0.2662360630222345</v>
-      </c>
-      <c r="CN4" t="n">
-        <v>0.8911145783496851</v>
-      </c>
-      <c r="CO4" t="n">
-        <v>0.08609267616732193</v>
-      </c>
-      <c r="CP4" t="n">
-        <v>6.150477745191638</v>
-      </c>
-      <c r="CQ4" t="n">
-        <v>0.01406191720235312</v>
-      </c>
-      <c r="CR4" t="n">
-        <v>0.005483569647166171</v>
-      </c>
-      <c r="CS4" t="n">
-        <v>1.527103920407353e-05</v>
-      </c>
-      <c r="CT4" t="n">
-        <v>1.490150224455739e-05</v>
-      </c>
-      <c r="CU4" t="n">
-        <v>0.9883108049436576</v>
-      </c>
-      <c r="CV4" t="n">
-        <v>8.88273010580415</v>
-      </c>
-      <c r="CW4" t="n">
-        <v>8.33243424159957</v>
-      </c>
-      <c r="CX4" t="n">
-        <v>3.3782102990338e-07</v>
-      </c>
-      <c r="CY4" t="n">
-        <v>1.797169378029589e-08</v>
-      </c>
-      <c r="CZ4" t="n">
-        <v>12.81607682727127</v>
-      </c>
-      <c r="DA4" t="n">
-        <v>8.715374125423432</v>
-      </c>
-      <c r="DB4" t="n">
-        <v>8.933685434601896</v>
-      </c>
-      <c r="DC4" t="n">
-        <v>2.93666350954091e-05</v>
-      </c>
-      <c r="DD4" t="n">
-        <v>0.06719318529628855</v>
-      </c>
-      <c r="DE4" t="n">
-        <v>0.06692047282700646</v>
-      </c>
-      <c r="DF4" t="n">
-        <v>3.109871450451083</v>
-      </c>
-      <c r="DG4" t="n">
-        <v>0.04827521821149089</v>
-      </c>
-      <c r="DH4" t="n">
-        <v>0.01690132567006937</v>
-      </c>
-      <c r="DI4" t="n">
-        <v>0.09360425986044518</v>
-      </c>
-      <c r="DJ4" t="n">
-        <v>0.01535957684176381</v>
-      </c>
-      <c r="DK4" t="n">
-        <v>2.642481240605757</v>
-      </c>
-      <c r="DL4" t="n">
-        <v>0.3515198032863961</v>
-      </c>
-      <c r="DM4" t="n">
-        <v>0.0007019439226206601</v>
-      </c>
-      <c r="DN4" t="n">
-        <v>0.6468024306793997</v>
-      </c>
-      <c r="DO4" t="n">
-        <v>13.0520956313082</v>
-      </c>
-      <c r="DP4" t="n">
-        <v>0.00227675830876057</v>
-      </c>
-      <c r="DQ4" t="n">
-        <v>0.2354013911701891</v>
-      </c>
-      <c r="DR4" t="n">
-        <v>0.007699963274346769</v>
-      </c>
-      <c r="DS4" t="n">
-        <v>9.426982230755792</v>
-      </c>
-      <c r="DT4" t="n">
-        <v>0.01122613993464935</v>
-      </c>
-      <c r="DU4" t="n">
-        <v>0.0008191893769959701</v>
-      </c>
-      <c r="DV4" t="n">
-        <v>0.001336245627596112</v>
-      </c>
-      <c r="DW4" t="n">
-        <v>1.842238517895423e-05</v>
-      </c>
-      <c r="DX4" t="n">
-        <v>0.000176984448936432</v>
-      </c>
-      <c r="DY4" t="n">
-        <v>34.33495733183841</v>
-      </c>
-      <c r="DZ4" t="n">
-        <v>1.424178532705731e-05</v>
-      </c>
-      <c r="EA4" t="n">
-        <v>0.1645440852712812</v>
-      </c>
-      <c r="EB4" t="n">
-        <v>0.1321080308866374</v>
-      </c>
-      <c r="EC4" t="n">
-        <v>0.3491452236765366</v>
-      </c>
-      <c r="ED4" t="n">
-        <v>0.008777722694740494</v>
-      </c>
-      <c r="EE4" t="n">
-        <v>0.01661805915278174</v>
-      </c>
-      <c r="EF4" t="n">
-        <v>0.002861336721351238</v>
-      </c>
-      <c r="EG4" t="n">
-        <v>5.270746784434785e-05</v>
-      </c>
-      <c r="EH4" t="n">
-        <v>0.2014705861815991</v>
-      </c>
-      <c r="EI4" t="n">
-        <v>0.04237958255161223</v>
-      </c>
-      <c r="EJ4" t="n">
-        <v>0.000725703266505442</v>
-      </c>
-      <c r="EK4" t="n">
-        <v>0.01129118150385356</v>
-      </c>
-      <c r="EL4" t="n">
-        <v>31.88676245145662</v>
-      </c>
-      <c r="EM4" t="n">
-        <v>0.0001999137297587083</v>
-      </c>
-      <c r="EN4" t="n">
-        <v>0.009684477145780211</v>
-      </c>
-      <c r="EO4" t="n">
-        <v>0.06073156141356745</v>
-      </c>
-      <c r="EP4" t="n">
-        <v>5.613051405160604e-08</v>
-      </c>
-      <c r="EQ4" t="n">
-        <v>3.347354920426608e-05</v>
-      </c>
-      <c r="ER4" t="n">
-        <v>0.000559144466936046</v>
-      </c>
-      <c r="ES4" t="n">
-        <v>0.1467153711944841</v>
-      </c>
-      <c r="ET4" t="n">
-        <v>0.004845027800845433</v>
-      </c>
-      <c r="EU4" t="n">
-        <v>3.194256218336205</v>
-      </c>
-      <c r="EV4" t="n">
-        <v>0.2825896208418872</v>
-      </c>
-      <c r="EW4" t="n">
-        <v>0.2812831162696693</v>
-      </c>
-      <c r="EX4" t="n">
-        <v>0.2812831162696693</v>
-      </c>
-      <c r="EY4" t="n">
-        <v>0.2825896208418872</v>
+        <v>0.9435077547431457</v>
       </c>
     </row>
   </sheetData>
